--- a/data/new_ET_data.xlsx
+++ b/data/new_ET_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26815"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED7DB87B-C085-42E4-8929-7FEDCB1A1A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59213ECB-2F66-4CE6-BE02-12313AAAC162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,34 +39,34 @@
     <t>Age</t>
   </si>
   <si>
-    <t>P1</t>
+    <t>P01</t>
   </si>
   <si>
-    <t>P2</t>
+    <t>P02</t>
   </si>
   <si>
-    <t>P3</t>
+    <t>P03</t>
   </si>
   <si>
-    <t>P4</t>
+    <t>P04</t>
   </si>
   <si>
-    <t>P7</t>
+    <t>P07</t>
   </si>
   <si>
-    <t>P6</t>
+    <t>P06</t>
   </si>
   <si>
     <t>P10</t>
   </si>
   <si>
-    <t>P8</t>
+    <t>P08</t>
   </si>
   <si>
     <t>P12</t>
   </si>
   <si>
-    <t>P9</t>
+    <t>P09</t>
   </si>
   <si>
     <t>P11</t>
@@ -516,7 +516,7 @@
   <dimension ref="A1:U121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
